--- a/SampleRecipes.xlsx
+++ b/SampleRecipes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>c9c486e9-c15f-409b-a535-7dbbc435a8a2</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>http://www.lactobac.com.pe/productos/whisky-en-las-rocas-1.jpg</t>
+  </si>
+  <si>
+    <t>Donkey's Bollox</t>
+  </si>
+  <si>
+    <t>Dangerous Mixture</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/53/Skull_and_crossbones.svg/2000px-Skull_and_crossbones.svg.png</t>
   </si>
 </sst>
 </file>
@@ -375,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="A4" sqref="A4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +497,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42319.959074074075</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42319.959074074075</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
